--- a/maven_use_base/src/main/resources/excel/datacheck/data_check.xlsx
+++ b/maven_use_base/src/main/resources/excel/datacheck/data_check.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B108C-82D1-42D0-B983-EF1F85790250}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13665" windowHeight="3330" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
   </si>
@@ -265,19 +266,24 @@
     <t>select count(*) from member where MobilePhone=13666666666;</t>
   </si>
   <si>
+    <t>ActualResult(实际结果)</t>
+  </si>
+  <si>
+    <t>CheckResult(验证结果)</t>
+  </si>
+  <si>
+    <t>select count(*) from member where MobilePhone=13666666666;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>select leaveamount,Type from member where MobilePhone=13666666666;</t>
-  </si>
-  <si>
-    <t>ActualResult(实际结果)</t>
-  </si>
-  <si>
-    <t>CheckResult(验证结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,9 +351,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,7 +438,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -396,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +506,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,6 +558,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,11 +750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +962,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -859,11 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,18 +1194,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,10 +1237,10 @@
         <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1143,7 +1254,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>73</v>
@@ -1160,7 +1271,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>74</v>
@@ -1177,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>75</v>
@@ -1194,7 +1305,7 @@
         <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>

--- a/maven_use_base/src/main/resources/excel/datacheck/data_check.xlsx
+++ b/maven_use_base/src/main/resources/excel/datacheck/data_check.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B108C-82D1-42D0-B983-EF1F85790250}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E37CB-3138-4937-AF52-7FA28427F6DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="数据验证的sql" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口测试用例!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口测试用例!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">接口基本信息!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
   </si>
@@ -278,13 +278,17 @@
   <si>
     <t>select leaveamount,Type from member where MobilePhone=13666666666;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlCheckResult(数据验证结果)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +308,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -328,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +353,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -971,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,10 +999,12 @@
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1002,11 +1020,14 @@
       <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1023,7 +1044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1091,7 +1112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1125,7 +1146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1194,7 +1215,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{EB040898-7EBA-4937-A12D-73478D07DD63}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
